--- a/result_with_formulas.xlsx
+++ b/result_with_formulas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,7 +452,7 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
@@ -581,12 +588,12 @@
         <f>I2</f>
         <v/>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <f>ROUND(I2/H2,2)</f>
         <v/>
       </c>
       <c r="M2">
-        <f>K2-3*H2</f>
+        <f>MAX(K2-3*H2, 0)</f>
         <v/>
       </c>
       <c r="N2">
@@ -648,7 +655,7 @@
         <v/>
       </c>
       <c r="M3">
-        <f>K3-3*H3</f>
+        <f>MAX(K3-3*H3, 0)</f>
         <v/>
       </c>
       <c r="N3">
@@ -705,12 +712,12 @@
         <f>I4</f>
         <v/>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>ROUND(I4/H4,2)</f>
         <v/>
       </c>
       <c r="M4">
-        <f>K4-3*H4</f>
+        <f>MAX(K4-3*H4, 0)</f>
         <v/>
       </c>
       <c r="N4">
@@ -772,7 +779,7 @@
         <v/>
       </c>
       <c r="M5">
-        <f>K5-3*H5</f>
+        <f>MAX(K5-3*H5, 0)</f>
         <v/>
       </c>
       <c r="N5">
@@ -834,7 +841,7 @@
         <v/>
       </c>
       <c r="M6">
-        <f>K6-3*H6</f>
+        <f>MAX(K6-3*H6, 0)</f>
         <v/>
       </c>
       <c r="N6">
@@ -896,7 +903,7 @@
         <v/>
       </c>
       <c r="M7">
-        <f>K7-3*H7</f>
+        <f>MAX(K7-3*H7, 0)</f>
         <v/>
       </c>
       <c r="N7">
@@ -953,12 +960,12 @@
         <f>I8</f>
         <v/>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f>ROUND(I8/H8,2)</f>
         <v/>
       </c>
       <c r="M8">
-        <f>K8-3*H8</f>
+        <f>MAX(K8-3*H8, 0)</f>
         <v/>
       </c>
       <c r="N8">
@@ -1020,7 +1027,7 @@
         <v/>
       </c>
       <c r="M9">
-        <f>K9-3*H9</f>
+        <f>MAX(K9-3*H9, 0)</f>
         <v/>
       </c>
       <c r="N9">
@@ -1082,7 +1089,7 @@
         <v/>
       </c>
       <c r="M10">
-        <f>K10-3*H10</f>
+        <f>MAX(K10-3*H10, 0)</f>
         <v/>
       </c>
       <c r="N10">
@@ -1115,63 +1122,63 @@
         <v/>
       </c>
       <c r="E11">
-        <f>SUM(E2:E11)</f>
+        <f>SUM(E2:E10)</f>
         <v/>
       </c>
       <c r="F11">
-        <f>SUM(F2:F11)</f>
+        <f>SUM(F2:F10)</f>
         <v/>
       </c>
       <c r="G11">
-        <f>SUM(G2:G11)</f>
+        <f>SUM(G2:G10)</f>
         <v/>
       </c>
       <c r="H11">
-        <f>SUM(H2:H11)</f>
+        <f>SUM(H2:H10)</f>
         <v/>
       </c>
       <c r="I11">
-        <f>SUM(I2:I11)</f>
+        <f>SUM(I2:I10)</f>
         <v/>
       </c>
       <c r="J11">
-        <f>SUM(J2:J11)</f>
+        <f>SUM(J2:J10)</f>
         <v/>
       </c>
       <c r="K11">
-        <f>SUM(K2:K11)</f>
+        <f>SUM(K2:K10)</f>
         <v/>
       </c>
       <c r="L11">
-        <f>SUM(L2:L11)</f>
+        <f>SUM(L2:L10)</f>
         <v/>
       </c>
       <c r="M11">
-        <f>SUM(M2:M11)</f>
+        <f>SUM(M2:M10)</f>
         <v/>
       </c>
       <c r="N11">
-        <f>SUM(N2:N11)</f>
+        <f>SUM(N2:N10)</f>
         <v/>
       </c>
       <c r="O11">
-        <f>SUM(O2:O11)</f>
+        <f>SUM(O2:O10)</f>
         <v/>
       </c>
       <c r="P11">
-        <f>SUM(P2:P11)</f>
+        <f>SUM(P2:P10)</f>
         <v/>
       </c>
       <c r="Q11">
-        <f>SUM(Q2:Q11)</f>
+        <f>SUM(Q2:Q10)</f>
         <v/>
       </c>
       <c r="R11">
-        <f>SUM(R2:R11)</f>
+        <f>SUM(R2:R10)</f>
         <v/>
       </c>
       <c r="S11">
-        <f>SUM(S2:S11)</f>
+        <f>SUM(S2:S10)</f>
         <v/>
       </c>
     </row>
